--- a/자유수강권/논술2(수강).xlsx
+++ b/자유수강권/논술2(수강).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="60">
   <si>
     <t>주야</t>
   </si>
@@ -58,6 +58,12 @@
     <t/>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>박정철</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
@@ -79,9 +85,6 @@
     <t>4반</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>김주열</t>
   </si>
   <si>
@@ -106,6 +109,12 @@
     <t>이영주</t>
   </si>
   <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>홍나은</t>
+  </si>
+  <si>
     <t>2반</t>
   </si>
   <si>
@@ -136,6 +145,12 @@
     <t>김경철</t>
   </si>
   <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>장예원</t>
+  </si>
+  <si>
     <t>3학년</t>
   </si>
   <si>
@@ -151,6 +166,12 @@
     <t>조혁준</t>
   </si>
   <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>이지민</t>
+  </si>
+  <si>
     <t>5학년</t>
   </si>
   <si>
@@ -170,9 +191,6 @@
   </si>
   <si>
     <t>이우성</t>
-  </si>
-  <si>
-    <t>18</t>
   </si>
   <si>
     <t>이우준</t>
@@ -544,7 +562,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -693,13 +711,13 @@
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>13</v>
@@ -719,13 +737,13 @@
         <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>13</v>
@@ -742,16 +760,16 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>13</v>
@@ -768,16 +786,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>13</v>
@@ -794,16 +812,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>13</v>
@@ -820,16 +838,16 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>13</v>
@@ -846,16 +864,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>13</v>
@@ -872,16 +890,16 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>13</v>
@@ -898,16 +916,16 @@
         <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>13</v>
@@ -924,16 +942,16 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>13</v>
@@ -950,16 +968,16 @@
         <v>8</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>13</v>
@@ -976,13 +994,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>44</v>
@@ -1005,13 +1023,13 @@
         <v>45</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>13</v>
@@ -1028,16 +1046,16 @@
         <v>8</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>13</v>
@@ -1054,16 +1072,16 @@
         <v>8</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>13</v>
@@ -1080,24 +1098,128 @@
         <v>8</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="13.5">
+      <c r="A22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="1" t="s">
+      <c r="D22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="13.5">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="13.5">
+      <c r="A24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="13.5">
+      <c r="A25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>13</v>
       </c>
     </row>
